--- a/yieldFiles/A1/a1_det9.xlsx
+++ b/yieldFiles/A1/a1_det9.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C703"/>
+  <dimension ref="A1:C843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3496,10 +3496,10 @@
         <v>2.71393</v>
       </c>
       <c r="B285" t="n">
-        <v>2.24404956e-13</v>
+        <v>2.53912194e-13</v>
       </c>
       <c r="C285" t="n">
-        <v>7.75161342e-15</v>
+        <v>6.38206362e-15</v>
       </c>
     </row>
     <row r="286">
@@ -3507,10 +3507,10 @@
         <v>2.71393</v>
       </c>
       <c r="B286" t="n">
-        <v>2.53912194e-13</v>
+        <v>2.24404956e-13</v>
       </c>
       <c r="C286" t="n">
-        <v>6.38206362e-15</v>
+        <v>7.75161342e-15</v>
       </c>
     </row>
     <row r="287">
@@ -4420,10 +4420,10 @@
         <v>2.74252</v>
       </c>
       <c r="B369" t="n">
-        <v>2.2768425e-13</v>
+        <v>2.34705816e-13</v>
       </c>
       <c r="C369" t="n">
-        <v>4.13085312e-15</v>
+        <v>3.88470582e-15</v>
       </c>
     </row>
     <row r="370">
@@ -4431,10 +4431,10 @@
         <v>2.74252</v>
       </c>
       <c r="B370" t="n">
-        <v>2.34705816e-13</v>
+        <v>2.2768425e-13</v>
       </c>
       <c r="C370" t="n">
-        <v>3.88470582e-15</v>
+        <v>4.13085312e-15</v>
       </c>
     </row>
     <row r="371">
@@ -4937,10 +4937,10 @@
         <v>2.80191</v>
       </c>
       <c r="B416" t="n">
-        <v>6.9405048e-14</v>
+        <v>1.009782252e-13</v>
       </c>
       <c r="C416" t="n">
-        <v>3.86639496e-15</v>
+        <v>3.95673174e-15</v>
       </c>
     </row>
     <row r="417">
@@ -4948,10 +4948,10 @@
         <v>2.80191</v>
       </c>
       <c r="B417" t="n">
-        <v>1.009782252e-13</v>
+        <v>6.9405048e-14</v>
       </c>
       <c r="C417" t="n">
-        <v>3.95673174e-15</v>
+        <v>3.86639496e-15</v>
       </c>
     </row>
     <row r="418">
@@ -5429,2675 +5429,4215 @@
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B461" t="n">
-        <v>1.68077034e-13</v>
+        <v>2.2136436e-13</v>
       </c>
       <c r="C461" t="n">
-        <v>6.86806236e-15</v>
+        <v>5.787833759999999e-15</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B462" t="n">
-        <v>1.451029122e-13</v>
+        <v>1.68077034e-13</v>
       </c>
       <c r="C462" t="n">
-        <v>7.7411844e-15</v>
+        <v>6.86806236e-15</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B463" t="n">
-        <v>2.95669926e-13</v>
+        <v>1.451029122e-13</v>
       </c>
       <c r="C463" t="n">
-        <v>7.18018002e-15</v>
+        <v>7.7411844e-15</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B464" t="n">
-        <v>2.24220726e-13</v>
+        <v>3.5342523e-13</v>
       </c>
       <c r="C464" t="n">
-        <v>8.4444624e-15</v>
+        <v>1.478296764e-14</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B465" t="n">
-        <v>2.777483519999999e-13</v>
+        <v>2.95669926e-13</v>
       </c>
       <c r="C465" t="n">
-        <v>8.763292439999999e-15</v>
+        <v>7.18018002e-15</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B466" t="n">
-        <v>3.46573476e-13</v>
+        <v>2.24220726e-13</v>
       </c>
       <c r="C466" t="n">
-        <v>1.03268925e-14</v>
+        <v>8.4444624e-15</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B467" t="n">
-        <v>3.22013214e-13</v>
+        <v>2.777483519999999e-13</v>
       </c>
       <c r="C467" t="n">
-        <v>1.054635048e-14</v>
+        <v>8.763292439999999e-15</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B468" t="n">
-        <v>3.530471580000001e-13</v>
+        <v>3.75130728e-13</v>
       </c>
       <c r="C468" t="n">
-        <v>1.055625084e-14</v>
+        <v>1.506379824e-14</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B469" t="n">
-        <v>3.5092611e-13</v>
+        <v>3.46573476e-13</v>
       </c>
       <c r="C469" t="n">
-        <v>1.169094744e-14</v>
+        <v>1.03268925e-14</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B470" t="n">
-        <v>3.4409358e-13</v>
+        <v>3.22013214e-13</v>
       </c>
       <c r="C470" t="n">
-        <v>1.372234752e-14</v>
+        <v>1.054635048e-14</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B471" t="n">
-        <v>3.61630674e-13</v>
+        <v>3.530471580000001e-13</v>
       </c>
       <c r="C471" t="n">
-        <v>9.89856576e-15</v>
+        <v>1.055625084e-14</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B472" t="n">
-        <v>3.21470136e-13</v>
+        <v>3.5092611e-13</v>
       </c>
       <c r="C472" t="n">
-        <v>1.11894093e-14</v>
+        <v>1.169094744e-14</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B473" t="n">
-        <v>3.24800694e-13</v>
+        <v>3.4409358e-13</v>
       </c>
       <c r="C473" t="n">
-        <v>1.11536046e-14</v>
+        <v>1.372234752e-14</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87288</v>
       </c>
       <c r="B474" t="n">
-        <v>2.31836634e-13</v>
+        <v>2.76819192e-13</v>
       </c>
       <c r="C474" t="n">
-        <v>7.62572826e-15</v>
+        <v>1.83610026e-14</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>2.87398</v>
+        <v>2.87297</v>
       </c>
       <c r="B475" t="n">
-        <v>2.3456484e-13</v>
+        <v>3.61630674e-13</v>
       </c>
       <c r="C475" t="n">
-        <v>1.155277494e-14</v>
+        <v>9.89856576e-15</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2.87487</v>
+        <v>2.87318</v>
       </c>
       <c r="B476" t="n">
-        <v>2.04384762e-13</v>
+        <v>3.21470136e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>1.04862114e-14</v>
+        <v>1.11894093e-14</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87337</v>
       </c>
       <c r="B477" t="n">
-        <v>1.505867184e-13</v>
+        <v>3.24800694e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>4.59890946e-15</v>
+        <v>1.11536046e-14</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87386</v>
       </c>
       <c r="B478" t="n">
-        <v>1.72620306e-13</v>
+        <v>2.31836634e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>3.62257056e-15</v>
+        <v>7.62572826e-15</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87398</v>
       </c>
       <c r="B479" t="n">
-        <v>1.444401648e-13</v>
+        <v>2.3456484e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>5.17409154e-15</v>
+        <v>1.155277494e-14</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B480" t="n">
-        <v>2.31839838e-13</v>
+        <v>2.06951166e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>7.92273906e-15</v>
+        <v>1.029241746e-14</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87487</v>
       </c>
       <c r="B481" t="n">
-        <v>3.0765609e-13</v>
+        <v>2.04384762e-13</v>
       </c>
       <c r="C481" t="n">
-        <v>1.093408254e-14</v>
+        <v>1.04862114e-14</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87584</v>
       </c>
       <c r="B482" t="n">
-        <v>2.60150382e-13</v>
+        <v>1.505867184e-13</v>
       </c>
       <c r="C482" t="n">
-        <v>6.65728722e-15</v>
+        <v>4.59890946e-15</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87591</v>
       </c>
       <c r="B483" t="n">
-        <v>2.0006577e-13</v>
+        <v>1.8438219e-13</v>
       </c>
       <c r="C483" t="n">
-        <v>5.663406419999999e-15</v>
+        <v>1.257047748e-14</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2.88082</v>
+        <v>2.87602</v>
       </c>
       <c r="B484" t="n">
-        <v>8.600657399999999e-14</v>
+        <v>1.72620306e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>6.3858123e-15</v>
+        <v>3.62257056e-15</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2.88879</v>
+        <v>2.87685</v>
       </c>
       <c r="B485" t="n">
-        <v>7.61938434e-14</v>
+        <v>1.8148257e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>4.0363191e-15</v>
+        <v>1.72037178e-14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87699</v>
       </c>
       <c r="B486" t="n">
-        <v>1.7887131e-13</v>
+        <v>1.444401648e-13</v>
       </c>
       <c r="C486" t="n">
-        <v>6.16282992e-15</v>
+        <v>5.17409154e-15</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87795</v>
       </c>
       <c r="B487" t="n">
-        <v>3.2860224e-13</v>
+        <v>2.31839838e-13</v>
       </c>
       <c r="C487" t="n">
-        <v>9.03371004e-15</v>
+        <v>7.92273906e-15</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.87802</v>
       </c>
       <c r="B488" t="n">
-        <v>1.68429474e-12</v>
+        <v>3.50975772e-13</v>
       </c>
       <c r="C488" t="n">
-        <v>3.639583800000001e-14</v>
+        <v>9.038227680000001e-15</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.8788</v>
       </c>
       <c r="B489" t="n">
-        <v>2.84513598e-12</v>
+        <v>2.04798078e-13</v>
       </c>
       <c r="C489" t="n">
-        <v>3.69832914e-14</v>
+        <v>1.101926088e-14</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87894</v>
       </c>
       <c r="B490" t="n">
-        <v>2.564802e-12</v>
+        <v>2.60150382e-13</v>
       </c>
       <c r="C490" t="n">
-        <v>2.45743596e-14</v>
+        <v>6.65728722e-15</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87894</v>
       </c>
       <c r="B491" t="n">
-        <v>1.40108517e-12</v>
+        <v>3.0765609e-13</v>
       </c>
       <c r="C491" t="n">
-        <v>3.25332558e-14</v>
+        <v>1.093408254e-14</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.87999</v>
       </c>
       <c r="B492" t="n">
-        <v>2.7317304e-12</v>
+        <v>2.0006577e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>3.55495014e-14</v>
+        <v>5.663406419999999e-15</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.88082</v>
       </c>
       <c r="B493" t="n">
-        <v>1.64118492e-12</v>
+        <v>8.600657399999999e-14</v>
       </c>
       <c r="C493" t="n">
-        <v>3.72335238e-14</v>
+        <v>6.3858123e-15</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.88098</v>
       </c>
       <c r="B494" t="n">
-        <v>6.9137514e-13</v>
+        <v>1.22919057e-13</v>
       </c>
       <c r="C494" t="n">
-        <v>1.65589128e-14</v>
+        <v>1.048054032e-14</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.88879</v>
       </c>
       <c r="B495" t="n">
-        <v>4.347603719999999e-13</v>
+        <v>7.61938434e-14</v>
       </c>
       <c r="C495" t="n">
-        <v>8.071436700000001e-15</v>
+        <v>4.0363191e-15</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.90444</v>
       </c>
       <c r="B496" t="n">
-        <v>3.10137588e-13</v>
+        <v>1.7887131e-13</v>
       </c>
       <c r="C496" t="n">
-        <v>8.570812140000001e-15</v>
+        <v>6.16282992e-15</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90481</v>
       </c>
       <c r="B497" t="n">
-        <v>2.41366932e-13</v>
+        <v>3.2860224e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>5.29807032e-15</v>
+        <v>9.03371004e-15</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90576</v>
       </c>
       <c r="B498" t="n">
-        <v>1.84851576e-13</v>
+        <v>1.68429474e-12</v>
       </c>
       <c r="C498" t="n">
-        <v>4.79440152e-15</v>
+        <v>3.639583800000001e-14</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90595</v>
       </c>
       <c r="B499" t="n">
-        <v>1.585369638e-13</v>
+        <v>2.84513598e-12</v>
       </c>
       <c r="C499" t="n">
-        <v>4.48806708e-15</v>
+        <v>3.69832914e-14</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90595</v>
       </c>
       <c r="B500" t="n">
-        <v>1.397091384e-13</v>
+        <v>2.564802e-12</v>
       </c>
       <c r="C500" t="n">
-        <v>4.24912878e-15</v>
+        <v>2.45743596e-14</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90644</v>
       </c>
       <c r="B501" t="n">
-        <v>1.072577448e-13</v>
+        <v>1.40108517e-12</v>
       </c>
       <c r="C501" t="n">
-        <v>3.6821169e-15</v>
+        <v>3.25332558e-14</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90675</v>
       </c>
       <c r="B502" t="n">
-        <v>1.029747978e-13</v>
+        <v>2.7317304e-12</v>
       </c>
       <c r="C502" t="n">
-        <v>4.03200972e-15</v>
+        <v>3.55495014e-14</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.90706</v>
       </c>
       <c r="B503" t="n">
-        <v>8.707142339999999e-14</v>
+        <v>1.64118492e-12</v>
       </c>
       <c r="C503" t="n">
-        <v>3.29252652e-15</v>
+        <v>3.72335238e-14</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90739</v>
       </c>
       <c r="B504" t="n">
-        <v>9.247224600000001e-14</v>
+        <v>6.9137514e-13</v>
       </c>
       <c r="C504" t="n">
-        <v>3.31460208e-15</v>
+        <v>1.65589128e-14</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.90788</v>
       </c>
       <c r="B505" t="n">
-        <v>1.499347044e-13</v>
+        <v>4.347603719999999e-13</v>
       </c>
       <c r="C505" t="n">
-        <v>5.173338600000001e-15</v>
+        <v>8.071436700000001e-15</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.9085</v>
       </c>
       <c r="B506" t="n">
-        <v>3.61919034e-13</v>
+        <v>3.10137588e-13</v>
       </c>
       <c r="C506" t="n">
-        <v>8.291968020000001e-15</v>
+        <v>8.570812140000001e-15</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.90904</v>
       </c>
       <c r="B507" t="n">
-        <v>1.293797628e-12</v>
+        <v>2.41366932e-13</v>
       </c>
       <c r="C507" t="n">
-        <v>1.99070928e-14</v>
+        <v>5.29807032e-15</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.90949</v>
       </c>
       <c r="B508" t="n">
-        <v>1.432425096e-12</v>
+        <v>1.84851576e-13</v>
       </c>
       <c r="C508" t="n">
-        <v>1.7604378e-14</v>
+        <v>4.79440152e-15</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.91001</v>
       </c>
       <c r="B509" t="n">
-        <v>1.230571494e-12</v>
+        <v>1.585369638e-13</v>
       </c>
       <c r="C509" t="n">
-        <v>2.31851052e-14</v>
+        <v>4.48806708e-15</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.91027</v>
       </c>
       <c r="B510" t="n">
-        <v>8.20100646e-13</v>
+        <v>1.397091384e-13</v>
       </c>
       <c r="C510" t="n">
-        <v>1.58961654e-14</v>
+        <v>4.24912878e-15</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.9115</v>
       </c>
       <c r="B511" t="n">
-        <v>4.872931559999999e-13</v>
+        <v>1.072577448e-13</v>
       </c>
       <c r="C511" t="n">
-        <v>1.125832734e-14</v>
+        <v>3.6821169e-15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.91247</v>
       </c>
       <c r="B512" t="n">
-        <v>2.13174936e-13</v>
+        <v>1.029747978e-13</v>
       </c>
       <c r="C512" t="n">
-        <v>5.675437439999999e-15</v>
+        <v>4.03200972e-15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91341</v>
       </c>
       <c r="B513" t="n">
-        <v>1.68942114e-13</v>
+        <v>8.707142339999999e-14</v>
       </c>
       <c r="C513" t="n">
-        <v>4.50993438e-15</v>
+        <v>3.29252652e-15</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91393</v>
       </c>
       <c r="B514" t="n">
-        <v>1.112194908e-13</v>
+        <v>9.247224600000001e-14</v>
       </c>
       <c r="C514" t="n">
-        <v>2.38436874e-15</v>
+        <v>3.31460208e-15</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91445</v>
       </c>
       <c r="B515" t="n">
-        <v>9.25845462e-14</v>
+        <v>1.499347044e-13</v>
       </c>
       <c r="C515" t="n">
-        <v>3.29135706e-15</v>
+        <v>5.173338600000001e-15</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91504</v>
       </c>
       <c r="B516" t="n">
-        <v>7.3891449e-14</v>
+        <v>3.61919034e-13</v>
       </c>
       <c r="C516" t="n">
-        <v>2.01022164e-15</v>
+        <v>8.291968020000001e-15</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91537</v>
       </c>
       <c r="B517" t="n">
-        <v>7.005273660000001e-14</v>
+        <v>1.293797628e-12</v>
       </c>
       <c r="C517" t="n">
-        <v>2.0146752e-15</v>
+        <v>1.99070928e-14</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91549</v>
       </c>
       <c r="B518" t="n">
-        <v>5.99969826e-14</v>
+        <v>1.432425096e-12</v>
       </c>
       <c r="C518" t="n">
-        <v>1.68765894e-15</v>
+        <v>1.7604378e-14</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91566</v>
       </c>
       <c r="B519" t="n">
-        <v>5.28800976e-14</v>
+        <v>1.230571494e-12</v>
       </c>
       <c r="C519" t="n">
-        <v>1.9715013e-15</v>
+        <v>2.31851052e-14</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91585</v>
       </c>
       <c r="B520" t="n">
-        <v>5.46860322e-14</v>
+        <v>8.20100646e-13</v>
       </c>
       <c r="C520" t="n">
-        <v>1.87317054e-15</v>
+        <v>1.58961654e-14</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91604</v>
       </c>
       <c r="B521" t="n">
-        <v>4.56960888e-14</v>
+        <v>4.872931559999999e-13</v>
       </c>
       <c r="C521" t="n">
-        <v>1.93532814e-15</v>
+        <v>1.125832734e-14</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91648</v>
       </c>
       <c r="B522" t="n">
-        <v>5.30987706e-14</v>
+        <v>2.13174936e-13</v>
       </c>
       <c r="C522" t="n">
-        <v>1.76213592e-15</v>
+        <v>5.675437439999999e-15</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.91693</v>
       </c>
       <c r="B523" t="n">
-        <v>4.7888586e-14</v>
+        <v>1.68942114e-13</v>
       </c>
       <c r="C523" t="n">
-        <v>1.87767216e-15</v>
+        <v>4.50993438e-15</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91745</v>
       </c>
       <c r="B524" t="n">
-        <v>4.88403342e-14</v>
+        <v>1.112194908e-13</v>
       </c>
       <c r="C524" t="n">
-        <v>2.0074662e-15</v>
+        <v>2.38436874e-15</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.91793</v>
       </c>
       <c r="B525" t="n">
-        <v>4.43694726e-14</v>
+        <v>9.25845462e-14</v>
       </c>
       <c r="C525" t="n">
-        <v>2.17469898e-15</v>
+        <v>3.29135706e-15</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.9184</v>
       </c>
       <c r="B526" t="n">
-        <v>4.46531868e-14</v>
+        <v>7.3891449e-14</v>
       </c>
       <c r="C526" t="n">
-        <v>2.22839802e-15</v>
+        <v>2.01022164e-15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.91892</v>
       </c>
       <c r="B527" t="n">
-        <v>4.1093703e-14</v>
+        <v>7.005273660000001e-14</v>
       </c>
       <c r="C527" t="n">
-        <v>1.97733258e-15</v>
+        <v>2.0146752e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.91946</v>
       </c>
       <c r="B528" t="n">
-        <v>4.68732384e-14</v>
+        <v>5.99969826e-14</v>
       </c>
       <c r="C528" t="n">
-        <v>2.15358462e-15</v>
+        <v>1.68765894e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.91991</v>
       </c>
       <c r="B529" t="n">
-        <v>6.8636088e-14</v>
+        <v>5.28800976e-14</v>
       </c>
       <c r="C529" t="n">
-        <v>2.30261868e-15</v>
+        <v>1.9715013e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.92043</v>
       </c>
       <c r="B530" t="n">
-        <v>1.365373386e-13</v>
+        <v>5.46860322e-14</v>
       </c>
       <c r="C530" t="n">
-        <v>3.36005082e-15</v>
+        <v>1.87317054e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92084</v>
       </c>
       <c r="B531" t="n">
-        <v>1.379525454e-13</v>
+        <v>4.56960888e-14</v>
       </c>
       <c r="C531" t="n">
-        <v>3.44313054e-15</v>
+        <v>1.93532814e-15</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.92143</v>
       </c>
       <c r="B532" t="n">
-        <v>1.053749142e-13</v>
+        <v>5.30987706e-14</v>
       </c>
       <c r="C532" t="n">
-        <v>2.75258844e-15</v>
+        <v>1.76213592e-15</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.9219</v>
       </c>
       <c r="B533" t="n">
-        <v>1.024618374e-13</v>
+        <v>4.7888586e-14</v>
       </c>
       <c r="C533" t="n">
-        <v>3.11234958e-15</v>
+        <v>1.87767216e-15</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.92247</v>
       </c>
       <c r="B534" t="n">
-        <v>1.536460578e-13</v>
+        <v>4.88403342e-14</v>
       </c>
       <c r="C534" t="n">
-        <v>3.72061296e-15</v>
+        <v>2.0074662e-15</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92297</v>
       </c>
       <c r="B535" t="n">
-        <v>2.58575616e-13</v>
+        <v>4.43694726e-14</v>
       </c>
       <c r="C535" t="n">
-        <v>8.601666660000001e-15</v>
+        <v>2.17469898e-15</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.92346</v>
       </c>
       <c r="B536" t="n">
-        <v>3.01209642e-13</v>
+        <v>4.46531868e-14</v>
       </c>
       <c r="C536" t="n">
-        <v>7.36396146e-15</v>
+        <v>2.22839802e-15</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.92583</v>
       </c>
       <c r="B537" t="n">
-        <v>4.20182172e-13</v>
+        <v>4.1093703e-14</v>
       </c>
       <c r="C537" t="n">
-        <v>7.98890166e-15</v>
+        <v>1.97733258e-15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.92979</v>
       </c>
       <c r="B538" t="n">
-        <v>6.46924446e-13</v>
+        <v>4.68732384e-14</v>
       </c>
       <c r="C538" t="n">
-        <v>1.137677922e-14</v>
+        <v>2.15358462e-15</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.93966</v>
       </c>
       <c r="B539" t="n">
-        <v>8.610285419999999e-13</v>
+        <v>6.8636088e-14</v>
       </c>
       <c r="C539" t="n">
-        <v>1.02229227e-14</v>
+        <v>2.30261868e-15</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.95006</v>
       </c>
       <c r="B540" t="n">
-        <v>1.038759228e-12</v>
+        <v>1.365373386e-13</v>
       </c>
       <c r="C540" t="n">
-        <v>1.592160516e-14</v>
+        <v>3.36005082e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.9597</v>
       </c>
       <c r="B541" t="n">
-        <v>1.14986754e-12</v>
+        <v>1.379525454e-13</v>
       </c>
       <c r="C541" t="n">
-        <v>1.593187398e-14</v>
+        <v>3.44313054e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.96984</v>
       </c>
       <c r="B542" t="n">
-        <v>1.240034508e-12</v>
+        <v>1.053749142e-13</v>
       </c>
       <c r="C542" t="n">
-        <v>1.7284779e-14</v>
+        <v>2.75258844e-15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.97074</v>
       </c>
       <c r="B543" t="n">
-        <v>1.325820006e-12</v>
+        <v>1.195087194e-13</v>
       </c>
       <c r="C543" t="n">
-        <v>1.552477374e-14</v>
+        <v>7.67498976e-15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.97979</v>
       </c>
       <c r="B544" t="n">
-        <v>1.394734842e-12</v>
+        <v>1.024618374e-13</v>
       </c>
       <c r="C544" t="n">
-        <v>1.79034714e-14</v>
+        <v>3.11234958e-15</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.98023</v>
       </c>
       <c r="B545" t="n">
-        <v>1.399832406e-12</v>
+        <v>1.118657376e-13</v>
       </c>
       <c r="C545" t="n">
-        <v>1.55552598e-14</v>
+        <v>6.07257324e-15</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.98967</v>
       </c>
       <c r="B546" t="n">
-        <v>1.450892952e-12</v>
+        <v>1.536460578e-13</v>
       </c>
       <c r="C546" t="n">
-        <v>1.75700952e-14</v>
+        <v>3.72061296e-15</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.99092</v>
       </c>
       <c r="B547" t="n">
-        <v>1.47601872e-12</v>
+        <v>1.800648e-13</v>
       </c>
       <c r="C547" t="n">
-        <v>1.7231913e-14</v>
+        <v>7.179683400000001e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99494</v>
       </c>
       <c r="B548" t="n">
-        <v>1.407505986e-12</v>
+        <v>2.335716e-13</v>
       </c>
       <c r="C548" t="n">
-        <v>1.70175654e-14</v>
+        <v>9.021935339999999e-15</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.99885</v>
       </c>
       <c r="B549" t="n">
-        <v>1.278469692e-12</v>
+        <v>2.58575616e-13</v>
       </c>
       <c r="C549" t="n">
-        <v>1.551093246e-14</v>
+        <v>8.601666660000001e-15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>3.01501</v>
+        <v>2.9989</v>
       </c>
       <c r="B550" t="n">
-        <v>1.124257968e-12</v>
+        <v>2.88010764e-13</v>
       </c>
       <c r="C550" t="n">
-        <v>1.69400286e-14</v>
+        <v>1.134747864e-14</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3.01551</v>
+        <v>2.99991</v>
       </c>
       <c r="B551" t="n">
-        <v>9.4601304e-13</v>
+        <v>3.06915966e-13</v>
       </c>
       <c r="C551" t="n">
-        <v>1.201902102e-14</v>
+        <v>1.106839422e-14</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.01607</v>
+        <v>2.99993</v>
       </c>
       <c r="B552" t="n">
-        <v>8.124398819999999e-13</v>
+        <v>3.01209642e-13</v>
       </c>
       <c r="C552" t="n">
-        <v>1.086069492e-14</v>
+        <v>7.36396146e-15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.0165</v>
+        <v>3.00139</v>
       </c>
       <c r="B553" t="n">
-        <v>7.2725994e-13</v>
+        <v>3.56983272e-13</v>
       </c>
       <c r="C553" t="n">
-        <v>1.170520524e-14</v>
+        <v>7.45857558e-15</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00252</v>
       </c>
       <c r="B554" t="n">
-        <v>6.38352144e-13</v>
+        <v>4.03755264e-13</v>
       </c>
       <c r="C554" t="n">
-        <v>9.366525539999998e-15</v>
+        <v>8.97852114e-15</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.00336</v>
       </c>
       <c r="B555" t="n">
-        <v>5.67389952e-13</v>
+        <v>4.01739948e-13</v>
       </c>
       <c r="C555" t="n">
-        <v>8.022127140000001e-15</v>
+        <v>1.22106843e-14</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00403</v>
       </c>
       <c r="B556" t="n">
-        <v>5.16550482e-13</v>
+        <v>4.20182172e-13</v>
       </c>
       <c r="C556" t="n">
-        <v>8.144808300000001e-15</v>
+        <v>7.98890166e-15</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.00434</v>
       </c>
       <c r="B557" t="n">
-        <v>4.49984178e-13</v>
+        <v>4.37576688e-13</v>
       </c>
       <c r="C557" t="n">
-        <v>1.01842344e-14</v>
+        <v>1.31814963e-14</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.0055</v>
       </c>
       <c r="B558" t="n">
-        <v>4.30154622e-13</v>
+        <v>5.01323472e-13</v>
       </c>
       <c r="C558" t="n">
-        <v>1.021156452e-14</v>
+        <v>8.234840700000001e-15</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.00638</v>
       </c>
       <c r="B559" t="n">
-        <v>3.71314764e-13</v>
+        <v>5.52238236e-13</v>
       </c>
       <c r="C559" t="n">
-        <v>1.02906873e-14</v>
+        <v>8.887799880000001e-15</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00754</v>
       </c>
       <c r="B560" t="n">
-        <v>3.04309512e-13</v>
+        <v>6.065123940000001e-13</v>
       </c>
       <c r="C560" t="n">
-        <v>9.768947939999999e-15</v>
+        <v>8.7543693e-15</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.00807</v>
       </c>
       <c r="B561" t="n">
-        <v>2.45307852e-13</v>
+        <v>6.46924446e-13</v>
       </c>
       <c r="C561" t="n">
-        <v>8.344161180000001e-15</v>
+        <v>1.137677922e-14</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.00843</v>
       </c>
       <c r="B562" t="n">
-        <v>2.45900592e-13</v>
+        <v>6.930524339999998e-13</v>
       </c>
       <c r="C562" t="n">
-        <v>7.84238274e-15</v>
+        <v>9.52602066e-15</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.00955</v>
       </c>
       <c r="B563" t="n">
-        <v>2.58119046e-13</v>
+        <v>8.48590614e-13</v>
       </c>
       <c r="C563" t="n">
-        <v>6.39995796e-15</v>
+        <v>1.270956312e-14</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.033</v>
+        <v>3.01001</v>
       </c>
       <c r="B564" t="n">
-        <v>2.77227702e-13</v>
+        <v>8.610285419999999e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>9.109260360000001e-15</v>
+        <v>1.02229227e-14</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01047</v>
       </c>
       <c r="B565" t="n">
-        <v>3.186522180000001e-13</v>
+        <v>1.03501215e-12</v>
       </c>
       <c r="C565" t="n">
-        <v>9.099135720000001e-15</v>
+        <v>1.183650516e-14</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01128</v>
       </c>
       <c r="B566" t="n">
-        <v>3.86532162e-13</v>
+        <v>1.038759228e-12</v>
       </c>
       <c r="C566" t="n">
-        <v>8.27485866e-15</v>
+        <v>1.592160516e-14</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01174</v>
       </c>
       <c r="B567" t="n">
-        <v>5.45524254e-13</v>
+        <v>1.14986754e-12</v>
       </c>
       <c r="C567" t="n">
-        <v>8.094873960000001e-15</v>
+        <v>1.593187398e-14</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01205</v>
       </c>
       <c r="B568" t="n">
-        <v>7.7928489e-13</v>
+        <v>1.240034508e-12</v>
       </c>
       <c r="C568" t="n">
-        <v>1.272792204e-14</v>
+        <v>1.7284779e-14</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01229</v>
       </c>
       <c r="B569" t="n">
-        <v>1.44133542e-12</v>
+        <v>1.325820006e-12</v>
       </c>
       <c r="C569" t="n">
-        <v>1.96812108e-14</v>
+        <v>1.552477374e-14</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01249</v>
       </c>
       <c r="B570" t="n">
-        <v>1.93523202e-12</v>
+        <v>1.394734842e-12</v>
       </c>
       <c r="C570" t="n">
-        <v>2.28403548e-14</v>
+        <v>1.79034714e-14</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01268</v>
       </c>
       <c r="B571" t="n">
-        <v>8.118439379999999e-13</v>
+        <v>1.399832406e-12</v>
       </c>
       <c r="C571" t="n">
-        <v>1.493147304e-14</v>
+        <v>1.55552598e-14</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01299</v>
       </c>
       <c r="B572" t="n">
-        <v>3.95046792e-13</v>
+        <v>1.450892952e-12</v>
       </c>
       <c r="C572" t="n">
-        <v>1.044212436e-14</v>
+        <v>1.75700952e-14</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01352</v>
       </c>
       <c r="B573" t="n">
-        <v>3.47867892e-13</v>
+        <v>1.47601872e-12</v>
       </c>
       <c r="C573" t="n">
-        <v>1.071971892e-14</v>
+        <v>1.7231913e-14</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01388</v>
       </c>
       <c r="B574" t="n">
-        <v>3.5264826e-13</v>
+        <v>1.407505986e-12</v>
       </c>
       <c r="C574" t="n">
-        <v>1.063290654e-14</v>
+        <v>1.70175654e-14</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01436</v>
       </c>
       <c r="B575" t="n">
-        <v>3.56142222e-13</v>
+        <v>1.278469692e-12</v>
       </c>
       <c r="C575" t="n">
-        <v>8.026036019999999e-15</v>
+        <v>1.551093246e-14</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01441</v>
       </c>
       <c r="B576" t="n">
-        <v>3.77617032e-13</v>
+        <v>9.44004132e-13</v>
       </c>
       <c r="C576" t="n">
-        <v>9.4697424e-15</v>
+        <v>1.569154194e-14</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.01501</v>
       </c>
       <c r="B577" t="n">
-        <v>3.25401444e-13</v>
+        <v>1.124257968e-12</v>
       </c>
       <c r="C577" t="n">
-        <v>9.762780239999999e-15</v>
+        <v>1.69400286e-14</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01551</v>
       </c>
       <c r="B578" t="n">
-        <v>2.45277414e-13</v>
+        <v>9.4601304e-13</v>
       </c>
       <c r="C578" t="n">
-        <v>8.382849479999999e-15</v>
+        <v>1.201902102e-14</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.01607</v>
       </c>
       <c r="B579" t="n">
-        <v>1.85694228e-13</v>
+        <v>8.124398819999999e-13</v>
       </c>
       <c r="C579" t="n">
-        <v>7.76250702e-15</v>
+        <v>1.086069492e-14</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.0165</v>
       </c>
       <c r="B580" t="n">
-        <v>2.13831756e-13</v>
+        <v>7.2725994e-13</v>
       </c>
       <c r="C580" t="n">
-        <v>8.139425580000001e-15</v>
+        <v>1.170520524e-14</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.01703</v>
       </c>
       <c r="B581" t="n">
-        <v>2.35104714e-13</v>
+        <v>6.38352144e-13</v>
       </c>
       <c r="C581" t="n">
-        <v>8.4900393e-15</v>
+        <v>9.366525539999998e-15</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01753</v>
       </c>
       <c r="B582" t="n">
-        <v>2.42201574e-13</v>
+        <v>5.67389952e-13</v>
       </c>
       <c r="C582" t="n">
-        <v>9.137695859999999e-15</v>
+        <v>8.022127140000001e-15</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01809</v>
       </c>
       <c r="B583" t="n">
-        <v>2.39143356e-13</v>
+        <v>5.16550482e-13</v>
       </c>
       <c r="C583" t="n">
-        <v>9.6047109e-15</v>
+        <v>8.144808300000001e-15</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.01852</v>
       </c>
       <c r="B584" t="n">
-        <v>2.8119906e-13</v>
+        <v>4.3201935e-13</v>
       </c>
       <c r="C584" t="n">
-        <v>9.49872258e-15</v>
+        <v>1.00037691e-14</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.01857</v>
       </c>
       <c r="B585" t="n">
-        <v>2.6423388e-13</v>
+        <v>4.49984178e-13</v>
       </c>
       <c r="C585" t="n">
-        <v>1.029994686e-14</v>
+        <v>1.01842344e-14</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.01898</v>
       </c>
       <c r="B586" t="n">
-        <v>2.47178988e-13</v>
+        <v>4.30154622e-13</v>
       </c>
       <c r="C586" t="n">
-        <v>9.88989894e-15</v>
+        <v>1.021156452e-14</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.062</v>
+        <v>3.02004</v>
       </c>
       <c r="B587" t="n">
-        <v>2.56839048e-13</v>
+        <v>3.71314764e-13</v>
       </c>
       <c r="C587" t="n">
-        <v>1.010315718e-14</v>
+        <v>1.02906873e-14</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02218</v>
       </c>
       <c r="B588" t="n">
-        <v>2.92151934e-13</v>
+        <v>3.04309512e-13</v>
       </c>
       <c r="C588" t="n">
-        <v>1.02989376e-14</v>
+        <v>9.768947939999999e-15</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02247</v>
       </c>
       <c r="B589" t="n">
-        <v>2.9788389e-13</v>
+        <v>2.85622182e-13</v>
       </c>
       <c r="C589" t="n">
-        <v>9.515992140000001e-15</v>
+        <v>6.762554639999999e-15</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.02586</v>
       </c>
       <c r="B590" t="n">
-        <v>2.88874242e-13</v>
+        <v>2.45307852e-13</v>
       </c>
       <c r="C590" t="n">
-        <v>9.95644602e-15</v>
+        <v>8.344161180000001e-15</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.02634</v>
       </c>
       <c r="B591" t="n">
-        <v>3.0236148e-13</v>
+        <v>2.439109079999999e-13</v>
       </c>
       <c r="C591" t="n">
-        <v>1.06528194e-14</v>
+        <v>7.42464522e-15</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.02991</v>
       </c>
       <c r="B592" t="n">
-        <v>3.0965058e-13</v>
+        <v>2.45900592e-13</v>
       </c>
       <c r="C592" t="n">
-        <v>1.09475874e-14</v>
+        <v>7.84238274e-15</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.03034</v>
       </c>
       <c r="B593" t="n">
-        <v>3.01935348e-13</v>
+        <v>2.46361968e-13</v>
       </c>
       <c r="C593" t="n">
-        <v>6.08178474e-15</v>
+        <v>6.53753772e-15</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.03203</v>
       </c>
       <c r="B594" t="n">
-        <v>3.14900334e-13</v>
+        <v>2.58119046e-13</v>
       </c>
       <c r="C594" t="n">
-        <v>5.87940408e-15</v>
+        <v>6.39995796e-15</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.03244</v>
       </c>
       <c r="B595" t="n">
-        <v>3.17735874e-13</v>
+        <v>2.80585494e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>6.13985724e-15</v>
+        <v>7.452391859999999e-15</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.033</v>
       </c>
       <c r="B596" t="n">
-        <v>3.03484482e-13</v>
+        <v>2.77227702e-13</v>
       </c>
       <c r="C596" t="n">
-        <v>6.550962480000001e-15</v>
+        <v>9.109260360000001e-15</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.0335</v>
       </c>
       <c r="B597" t="n">
-        <v>2.89483002e-13</v>
+        <v>4.90936104e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>6.99963462e-15</v>
+        <v>9.25518654e-15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.0336</v>
       </c>
       <c r="B598" t="n">
-        <v>2.73985254e-13</v>
+        <v>3.186522180000001e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>5.9192298e-15</v>
+        <v>9.099135720000001e-15</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.03367</v>
       </c>
       <c r="B599" t="n">
-        <v>2.78373132e-13</v>
+        <v>6.74011062e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>6.1075449e-15</v>
+        <v>1.11091491e-14</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03399</v>
       </c>
       <c r="B600" t="n">
-        <v>2.63447298e-13</v>
+        <v>3.86532162e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>5.972896799999999e-15</v>
+        <v>8.27485866e-15</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03401</v>
       </c>
       <c r="B601" t="n">
-        <v>2.68754724e-13</v>
+        <v>1.85171976e-12</v>
       </c>
       <c r="C601" t="n">
-        <v>5.91751566e-15</v>
+        <v>1.90673244e-14</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03423</v>
       </c>
       <c r="B602" t="n">
-        <v>2.51988192e-13</v>
+        <v>1.026662526e-12</v>
       </c>
       <c r="C602" t="n">
-        <v>5.830527059999999e-15</v>
+        <v>1.060685802e-14</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03432</v>
       </c>
       <c r="B603" t="n">
-        <v>2.36682684e-13</v>
+        <v>5.45524254e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>5.712876180000001e-15</v>
+        <v>8.094873960000001e-15</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03444</v>
       </c>
       <c r="B604" t="n">
-        <v>2.31173406e-13</v>
+        <v>1.56996e-12</v>
       </c>
       <c r="C604" t="n">
-        <v>6.52653198e-15</v>
+        <v>1.152977022e-14</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03452</v>
       </c>
       <c r="B605" t="n">
-        <v>2.2511304e-13</v>
+        <v>7.7928489e-13</v>
       </c>
       <c r="C605" t="n">
-        <v>5.31016542e-15</v>
+        <v>1.272792204e-14</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03483</v>
       </c>
       <c r="B606" t="n">
-        <v>2.2903794e-13</v>
+        <v>1.44133542e-12</v>
       </c>
       <c r="C606" t="n">
-        <v>5.83957836e-15</v>
+        <v>1.96812108e-14</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03488</v>
       </c>
       <c r="B607" t="n">
-        <v>2.2138038e-13</v>
+        <v>9.90337176e-13</v>
       </c>
       <c r="C607" t="n">
-        <v>5.8984038e-15</v>
+        <v>1.165536702e-14</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03505</v>
       </c>
       <c r="B608" t="n">
-        <v>2.23394094e-13</v>
+        <v>1.93523202e-12</v>
       </c>
       <c r="C608" t="n">
-        <v>6.109194960000002e-15</v>
+        <v>2.28403548e-14</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03594</v>
       </c>
       <c r="B609" t="n">
-        <v>2.2495284e-13</v>
+        <v>8.118439379999999e-13</v>
       </c>
       <c r="C609" t="n">
-        <v>6.19390872e-15</v>
+        <v>1.493147304e-14</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03698</v>
       </c>
       <c r="B610" t="n">
-        <v>2.419917120000001e-13</v>
+        <v>3.95046792e-13</v>
       </c>
       <c r="C610" t="n">
-        <v>6.16266972e-15</v>
+        <v>1.044212436e-14</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.03799</v>
       </c>
       <c r="B611" t="n">
-        <v>3.15103788e-13</v>
+        <v>3.47867892e-13</v>
       </c>
       <c r="C611" t="n">
-        <v>5.96487078e-15</v>
+        <v>1.071971892e-14</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.03879</v>
       </c>
       <c r="B612" t="n">
-        <v>5.90692644e-13</v>
+        <v>3.57332508e-13</v>
       </c>
       <c r="C612" t="n">
-        <v>9.10615248e-15</v>
+        <v>6.86330442e-15</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.03898</v>
       </c>
       <c r="B613" t="n">
-        <v>8.30138778e-13</v>
+        <v>3.5264826e-13</v>
       </c>
       <c r="C613" t="n">
-        <v>9.0720459e-15</v>
+        <v>1.063290654e-14</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.04002</v>
       </c>
       <c r="B614" t="n">
-        <v>1.43343756e-12</v>
+        <v>3.56142222e-13</v>
       </c>
       <c r="C614" t="n">
-        <v>1.38155679e-14</v>
+        <v>8.026036019999999e-15</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04202</v>
       </c>
       <c r="B615" t="n">
-        <v>2.44965024e-12</v>
+        <v>3.77617032e-13</v>
       </c>
       <c r="C615" t="n">
-        <v>1.93212414e-14</v>
+        <v>9.4697424e-15</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04296</v>
       </c>
       <c r="B616" t="n">
-        <v>3.40522722e-12</v>
+        <v>3.6671382e-13</v>
       </c>
       <c r="C616" t="n">
-        <v>2.008908e-14</v>
+        <v>7.37020926e-15</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.04591</v>
       </c>
       <c r="B617" t="n">
-        <v>3.51869688e-12</v>
+        <v>3.25401444e-13</v>
       </c>
       <c r="C617" t="n">
-        <v>2.05078428e-14</v>
+        <v>9.762780239999999e-15</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.04695</v>
       </c>
       <c r="B618" t="n">
-        <v>2.78070354e-12</v>
+        <v>2.83014126e-13</v>
       </c>
       <c r="C618" t="n">
-        <v>2.04652296e-14</v>
+        <v>7.45791876e-15</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.04891</v>
       </c>
       <c r="B619" t="n">
-        <v>2.23051266e-12</v>
+        <v>2.46536586e-13</v>
       </c>
       <c r="C619" t="n">
-        <v>1.73147364e-14</v>
+        <v>6.824119499999999e-15</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.05</v>
       </c>
       <c r="B620" t="n">
-        <v>1.521161478e-12</v>
+        <v>2.45277414e-13</v>
       </c>
       <c r="C620" t="n">
-        <v>1.541109582e-14</v>
+        <v>8.382849479999999e-15</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.0529</v>
       </c>
       <c r="B621" t="n">
-        <v>1.179046368e-12</v>
+        <v>2.10316968e-13</v>
       </c>
       <c r="C621" t="n">
-        <v>1.350425124e-14</v>
+        <v>6.66074754e-15</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.05401</v>
       </c>
       <c r="B622" t="n">
-        <v>7.060510619999999e-13</v>
+        <v>1.85694228e-13</v>
       </c>
       <c r="C622" t="n">
-        <v>1.046027502e-14</v>
+        <v>7.76250702e-15</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.05694</v>
       </c>
       <c r="B623" t="n">
-        <v>5.791438259999999e-13</v>
+        <v>2.21558202e-13</v>
       </c>
       <c r="C623" t="n">
-        <v>1.051057782e-14</v>
+        <v>7.4147769e-15</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.05801</v>
       </c>
       <c r="B624" t="n">
-        <v>4.684248e-13</v>
+        <v>2.13831756e-13</v>
       </c>
       <c r="C624" t="n">
-        <v>9.0361611e-15</v>
+        <v>8.139425580000001e-15</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.05997</v>
       </c>
       <c r="B625" t="n">
-        <v>4.11819732e-13</v>
+        <v>2.35104714e-13</v>
       </c>
       <c r="C625" t="n">
-        <v>8.675999460000001e-15</v>
+        <v>8.4900393e-15</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.06048</v>
       </c>
       <c r="B626" t="n">
-        <v>3.54823776e-13</v>
+        <v>2.42201574e-13</v>
       </c>
       <c r="C626" t="n">
-        <v>8.528327099999999e-15</v>
+        <v>9.137695859999999e-15</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06094</v>
       </c>
       <c r="B627" t="n">
-        <v>3.24103824e-13</v>
+        <v>2.85742332e-13</v>
       </c>
       <c r="C627" t="n">
-        <v>7.067399220000001e-15</v>
+        <v>6.419966940000001e-15</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.06096</v>
       </c>
       <c r="B628" t="n">
-        <v>2.94609402e-13</v>
+        <v>2.39143356e-13</v>
       </c>
       <c r="C628" t="n">
-        <v>1.029776814e-14</v>
+        <v>9.6047109e-15</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.0613</v>
       </c>
       <c r="B629" t="n">
-        <v>2.813640659999999e-13</v>
+        <v>2.8119906e-13</v>
       </c>
       <c r="C629" t="n">
-        <v>8.061007680000001e-15</v>
+        <v>9.49872258e-15</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.06147</v>
       </c>
       <c r="B630" t="n">
-        <v>2.7605664e-13</v>
+        <v>2.6423388e-13</v>
       </c>
       <c r="C630" t="n">
-        <v>7.31859282e-15</v>
+        <v>1.029994686e-14</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.06178</v>
       </c>
       <c r="B631" t="n">
-        <v>2.640320280000001e-13</v>
+        <v>2.47178988e-13</v>
       </c>
       <c r="C631" t="n">
-        <v>7.56549306e-15</v>
+        <v>9.88989894e-15</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.062</v>
       </c>
       <c r="B632" t="n">
-        <v>2.70339102e-13</v>
+        <v>2.56839048e-13</v>
       </c>
       <c r="C632" t="n">
-        <v>7.847204760000001e-15</v>
+        <v>1.010315718e-14</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.06227</v>
       </c>
       <c r="B633" t="n">
-        <v>2.56598748e-13</v>
+        <v>2.92151934e-13</v>
       </c>
       <c r="C633" t="n">
-        <v>8.254849679999999e-15</v>
+        <v>1.02989376e-14</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.06258</v>
       </c>
       <c r="B634" t="n">
-        <v>2.67423462e-13</v>
+        <v>2.9788389e-13</v>
       </c>
       <c r="C634" t="n">
-        <v>7.189647839999999e-15</v>
+        <v>9.515992140000001e-15</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.0628</v>
       </c>
       <c r="B635" t="n">
-        <v>2.90905578e-13</v>
+        <v>2.88874242e-13</v>
       </c>
       <c r="C635" t="n">
-        <v>6.68969568e-15</v>
+        <v>9.95644602e-15</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.06292</v>
       </c>
       <c r="B636" t="n">
-        <v>2.83485114e-13</v>
+        <v>2.99961684e-13</v>
       </c>
       <c r="C636" t="n">
-        <v>6.989974559999999e-15</v>
+        <v>6.62696136e-15</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06312</v>
       </c>
       <c r="B637" t="n">
-        <v>2.91078594e-13</v>
+        <v>3.0236148e-13</v>
       </c>
       <c r="C637" t="n">
-        <v>6.88589262e-15</v>
+        <v>1.06528194e-14</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06324</v>
       </c>
       <c r="B638" t="n">
-        <v>2.860002540000001e-13</v>
+        <v>3.0965058e-13</v>
       </c>
       <c r="C638" t="n">
-        <v>8.03532762e-15</v>
+        <v>1.09475874e-14</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06353</v>
       </c>
       <c r="B639" t="n">
-        <v>2.9708289e-13</v>
+        <v>3.01935348e-13</v>
       </c>
       <c r="C639" t="n">
-        <v>7.362167219999999e-15</v>
+        <v>6.08178474e-15</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06375</v>
       </c>
       <c r="B640" t="n">
-        <v>3.00666564e-13</v>
+        <v>3.14900334e-13</v>
       </c>
       <c r="C640" t="n">
-        <v>7.589667240000001e-15</v>
+        <v>5.87940408e-15</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06389</v>
       </c>
       <c r="B641" t="n">
-        <v>3.06907956e-13</v>
+        <v>2.712890880000001e-13</v>
       </c>
       <c r="C641" t="n">
-        <v>7.664224320000001e-15</v>
+        <v>7.761081240000001e-15</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06404</v>
       </c>
       <c r="B642" t="n">
-        <v>3.0271392e-13</v>
+        <v>3.17735874e-13</v>
       </c>
       <c r="C642" t="n">
-        <v>9.18936036e-15</v>
+        <v>6.13985724e-15</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06418</v>
       </c>
       <c r="B643" t="n">
-        <v>3.08899242e-13</v>
+        <v>3.03484482e-13</v>
       </c>
       <c r="C643" t="n">
-        <v>7.609147559999999e-15</v>
+        <v>6.550962480000001e-15</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06445</v>
       </c>
       <c r="B644" t="n">
-        <v>3.40764624e-13</v>
+        <v>2.89483002e-13</v>
       </c>
       <c r="C644" t="n">
-        <v>9.963943379999999e-15</v>
+        <v>6.99963462e-15</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06455</v>
       </c>
       <c r="B645" t="n">
-        <v>3.7417914e-13</v>
+        <v>2.66146668e-13</v>
       </c>
       <c r="C645" t="n">
-        <v>7.679138939999999e-15</v>
+        <v>8.34283152e-15</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06481</v>
       </c>
       <c r="B646" t="n">
-        <v>4.65762276e-13</v>
+        <v>2.73985254e-13</v>
       </c>
       <c r="C646" t="n">
-        <v>9.6828084e-15</v>
+        <v>5.9192298e-15</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06486</v>
       </c>
       <c r="B647" t="n">
-        <v>6.362871660000001e-13</v>
+        <v>2.395502640000001e-13</v>
       </c>
       <c r="C647" t="n">
-        <v>1.061025426e-14</v>
+        <v>8.19555966e-15</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06498</v>
       </c>
       <c r="B648" t="n">
-        <v>7.11795834e-13</v>
+        <v>2.78373132e-13</v>
       </c>
       <c r="C648" t="n">
-        <v>1.251685854e-14</v>
+        <v>6.1075449e-15</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06532</v>
       </c>
       <c r="B649" t="n">
-        <v>8.842206960000001e-13</v>
+        <v>2.63447298e-13</v>
       </c>
       <c r="C649" t="n">
-        <v>1.167902856e-14</v>
+        <v>5.972896799999999e-15</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.06547</v>
       </c>
       <c r="B650" t="n">
-        <v>1.300112712e-12</v>
+        <v>2.68754724e-13</v>
       </c>
       <c r="C650" t="n">
-        <v>1.5347961e-14</v>
+        <v>5.91751566e-15</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06583</v>
       </c>
       <c r="B651" t="n">
-        <v>1.564356204e-12</v>
+        <v>2.51988192e-13</v>
       </c>
       <c r="C651" t="n">
-        <v>1.69815204e-14</v>
+        <v>5.830527059999999e-15</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.06603</v>
       </c>
       <c r="B652" t="n">
-        <v>1.69693452e-12</v>
+        <v>2.36682684e-13</v>
       </c>
       <c r="C652" t="n">
-        <v>1.79746002e-14</v>
+        <v>5.712876180000001e-15</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.0662</v>
       </c>
       <c r="B653" t="n">
-        <v>1.591543746e-12</v>
+        <v>2.31173406e-13</v>
       </c>
       <c r="C653" t="n">
-        <v>1.80934686e-14</v>
+        <v>6.52653198e-15</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.06658</v>
       </c>
       <c r="B654" t="n">
-        <v>1.363811436e-12</v>
+        <v>2.2511304e-13</v>
       </c>
       <c r="C654" t="n">
-        <v>1.74611592e-14</v>
+        <v>5.31016542e-15</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06707</v>
       </c>
       <c r="B655" t="n">
-        <v>8.781987779999999e-13</v>
+        <v>2.2903794e-13</v>
       </c>
       <c r="C655" t="n">
-        <v>1.19847222e-14</v>
+        <v>5.83957836e-15</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06758</v>
       </c>
       <c r="B656" t="n">
-        <v>6.12266778e-13</v>
+        <v>2.2138038e-13</v>
       </c>
       <c r="C656" t="n">
-        <v>1.075372938e-14</v>
+        <v>5.8984038e-15</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.06787</v>
       </c>
       <c r="B657" t="n">
-        <v>5.2206777e-13</v>
+        <v>2.23394094e-13</v>
       </c>
       <c r="C657" t="n">
-        <v>9.951527880000001e-15</v>
+        <v>6.109194960000002e-15</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.06913</v>
       </c>
       <c r="B658" t="n">
-        <v>4.451076900000001e-13</v>
+        <v>2.2495284e-13</v>
       </c>
       <c r="C658" t="n">
-        <v>8.04183174e-15</v>
+        <v>6.19390872e-15</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.06998</v>
       </c>
       <c r="B659" t="n">
-        <v>3.92581314e-13</v>
+        <v>2.419917120000001e-13</v>
       </c>
       <c r="C659" t="n">
-        <v>8.24626296e-15</v>
+        <v>6.16266972e-15</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.07042</v>
       </c>
       <c r="B660" t="n">
-        <v>3.84226884e-13</v>
+        <v>3.79755702e-13</v>
       </c>
       <c r="C660" t="n">
-        <v>8.43994476e-15</v>
+        <v>8.658826019999999e-15</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07095</v>
       </c>
       <c r="B661" t="n">
-        <v>3.73932432e-13</v>
+        <v>3.15103788e-13</v>
       </c>
       <c r="C661" t="n">
-        <v>9.075650400000001e-15</v>
+        <v>5.96487078e-15</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07097</v>
       </c>
       <c r="B662" t="n">
-        <v>3.51371466e-13</v>
+        <v>4.689758880000001e-13</v>
       </c>
       <c r="C662" t="n">
-        <v>9.24517404e-15</v>
+        <v>9.608475599999999e-15</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07192</v>
       </c>
       <c r="B663" t="n">
-        <v>3.47119758e-13</v>
+        <v>1.356259608e-12</v>
       </c>
       <c r="C663" t="n">
-        <v>9.312057539999999e-15</v>
+        <v>2.61396738e-14</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07204</v>
       </c>
       <c r="B664" t="n">
-        <v>3.47323212e-13</v>
+        <v>1.96538166e-12</v>
       </c>
       <c r="C664" t="n">
-        <v>9.38845692e-15</v>
+        <v>2.57572764e-14</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>3.112</v>
+        <v>3.07209</v>
       </c>
       <c r="B665" t="n">
-        <v>3.71593512e-13</v>
+        <v>5.90692644e-13</v>
       </c>
       <c r="C665" t="n">
-        <v>1.017016884e-14</v>
+        <v>9.10615248e-15</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07241</v>
       </c>
       <c r="B666" t="n">
-        <v>3.99032568e-13</v>
+        <v>3.22280748e-12</v>
       </c>
       <c r="C666" t="n">
-        <v>1.0429821e-14</v>
+        <v>4.5756324e-14</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.07245</v>
       </c>
       <c r="B667" t="n">
-        <v>4.51398744e-13</v>
+        <v>8.30138778e-13</v>
       </c>
       <c r="C667" t="n">
-        <v>1.044121122e-14</v>
+        <v>9.0720459e-15</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>3.124</v>
+        <v>3.0726</v>
       </c>
       <c r="B668" t="n">
-        <v>4.43645064e-13</v>
+        <v>3.59908524e-12</v>
       </c>
       <c r="C668" t="n">
-        <v>1.044854838e-14</v>
+        <v>2.89644804e-14</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.07279</v>
       </c>
       <c r="B669" t="n">
-        <v>3.63815802e-13</v>
+        <v>1.43343756e-12</v>
       </c>
       <c r="C669" t="n">
-        <v>7.5108969e-15</v>
+        <v>1.38155679e-14</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07292</v>
       </c>
       <c r="B670" t="n">
-        <v>3.4575165e-13</v>
+        <v>3.12184944e-12</v>
       </c>
       <c r="C670" t="n">
-        <v>7.657912439999999e-15</v>
+        <v>2.58019722e-14</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.07309</v>
       </c>
       <c r="B671" t="n">
-        <v>3.02158026e-13</v>
+        <v>2.51980182e-12</v>
       </c>
       <c r="C671" t="n">
-        <v>7.01981982e-15</v>
+        <v>2.50495128e-14</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07309</v>
       </c>
       <c r="B672" t="n">
-        <v>2.49376932e-13</v>
+        <v>2.44965024e-12</v>
       </c>
       <c r="C672" t="n">
-        <v>8.284502699999999e-15</v>
+        <v>1.93212414e-14</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.07328</v>
       </c>
       <c r="B673" t="n">
-        <v>2.33710974e-13</v>
+        <v>3.40522722e-12</v>
       </c>
       <c r="C673" t="n">
-        <v>7.899862499999999e-15</v>
+        <v>2.008908e-14</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>3.157</v>
+        <v>3.0734</v>
       </c>
       <c r="B674" t="n">
-        <v>2.11749156e-13</v>
+        <v>2.22682806e-12</v>
       </c>
       <c r="C674" t="n">
-        <v>6.35079258e-15</v>
+        <v>2.47034808e-14</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.07362</v>
       </c>
       <c r="B675" t="n">
-        <v>2.1341844e-13</v>
+        <v>3.51869688e-12</v>
       </c>
       <c r="C675" t="n">
-        <v>7.00352748e-15</v>
+        <v>2.05078428e-14</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07374</v>
       </c>
       <c r="B676" t="n">
-        <v>2.28161646e-13</v>
+        <v>1.62212112e-12</v>
       </c>
       <c r="C676" t="n">
-        <v>5.4959814e-15</v>
+        <v>2.04673122e-14</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.07384</v>
       </c>
       <c r="B677" t="n">
-        <v>2.20992696e-13</v>
+        <v>2.78070354e-12</v>
       </c>
       <c r="C677" t="n">
-        <v>6.71848362e-15</v>
+        <v>2.04652296e-14</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07398</v>
       </c>
       <c r="B678" t="n">
-        <v>2.80832202e-13</v>
+        <v>1.107385704e-12</v>
       </c>
       <c r="C678" t="n">
-        <v>9.118359719999999e-15</v>
+        <v>1.290335706e-14</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.07401</v>
       </c>
       <c r="B679" t="n">
-        <v>7.45904016e-13</v>
+        <v>2.23051266e-12</v>
       </c>
       <c r="C679" t="n">
-        <v>1.079586198e-14</v>
+        <v>1.73147364e-14</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.0743</v>
       </c>
       <c r="B680" t="n">
-        <v>3.09126726e-13</v>
+        <v>1.521161478e-12</v>
       </c>
       <c r="C680" t="n">
-        <v>5.16592134e-15</v>
+        <v>1.541109582e-14</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.07452</v>
       </c>
       <c r="B681" t="n">
-        <v>2.7840357e-13</v>
+        <v>1.179046368e-12</v>
       </c>
       <c r="C681" t="n">
-        <v>7.20629262e-15</v>
+        <v>1.350425124e-14</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07452</v>
       </c>
       <c r="B682" t="n">
-        <v>2.55724056e-13</v>
+        <v>7.06771962e-13</v>
       </c>
       <c r="C682" t="n">
-        <v>6.02145342e-15</v>
+        <v>1.21136031e-14</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.07491</v>
       </c>
       <c r="B683" t="n">
-        <v>2.53697526e-13</v>
+        <v>5.406862139999999e-13</v>
       </c>
       <c r="C683" t="n">
-        <v>5.11057224e-15</v>
+        <v>1.112712354e-14</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07505</v>
       </c>
       <c r="B684" t="n">
-        <v>2.45868552e-13</v>
+        <v>7.060510619999999e-13</v>
       </c>
       <c r="C684" t="n">
-        <v>4.8728034e-15</v>
+        <v>1.046027502e-14</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.07537</v>
       </c>
       <c r="B685" t="n">
-        <v>2.5986843e-13</v>
+        <v>5.791438259999999e-13</v>
       </c>
       <c r="C685" t="n">
-        <v>7.0424721e-15</v>
+        <v>1.051057782e-14</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.0759</v>
       </c>
       <c r="B686" t="n">
-        <v>2.77806024e-13</v>
+        <v>3.84877296e-13</v>
       </c>
       <c r="C686" t="n">
-        <v>7.040165219999999e-15</v>
+        <v>8.11257606e-15</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.07593</v>
       </c>
       <c r="B687" t="n">
-        <v>2.93592132e-13</v>
+        <v>4.684248e-13</v>
       </c>
       <c r="C687" t="n">
-        <v>6.80141916e-15</v>
+        <v>9.0361611e-15</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07644</v>
       </c>
       <c r="B688" t="n">
-        <v>3.87901872e-13</v>
+        <v>4.11819732e-13</v>
       </c>
       <c r="C688" t="n">
-        <v>8.085326040000001e-15</v>
+        <v>8.675999460000001e-15</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.07697</v>
       </c>
       <c r="B689" t="n">
-        <v>5.259494160000003e-13</v>
+        <v>3.54823776e-13</v>
       </c>
       <c r="C689" t="n">
-        <v>1.050493878e-14</v>
+        <v>8.528327099999999e-15</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.07784</v>
       </c>
       <c r="B690" t="n">
-        <v>6.398660339999999e-13</v>
+        <v>2.99258406e-13</v>
       </c>
       <c r="C690" t="n">
-        <v>8.938695419999999e-15</v>
+        <v>7.75657962e-15</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.07801</v>
       </c>
       <c r="B691" t="n">
-        <v>7.74972306e-13</v>
+        <v>3.24103824e-13</v>
       </c>
       <c r="C691" t="n">
-        <v>1.208103444e-14</v>
+        <v>7.067399220000001e-15</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.08001</v>
       </c>
       <c r="B692" t="n">
-        <v>8.891772839999998e-13</v>
+        <v>2.94609402e-13</v>
       </c>
       <c r="C692" t="n">
-        <v>1.170264204e-14</v>
+        <v>1.029776814e-14</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.0819</v>
       </c>
       <c r="B693" t="n">
-        <v>8.876393639999999e-13</v>
+        <v>2.58734214e-13</v>
       </c>
       <c r="C693" t="n">
-        <v>1.559196162e-14</v>
+        <v>9.495214199999999e-15</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08205</v>
       </c>
       <c r="B694" t="n">
-        <v>3.271956840000001e-13</v>
+        <v>2.813640659999999e-13</v>
       </c>
       <c r="C694" t="n">
-        <v>5.97371382e-15</v>
+        <v>8.061007680000001e-15</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.0829</v>
       </c>
       <c r="B695" t="n">
-        <v>4.593110220000001e-13</v>
+        <v>2.7605664e-13</v>
       </c>
       <c r="C695" t="n">
-        <v>1.027032588e-14</v>
+        <v>7.31859282e-15</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.08356</v>
       </c>
       <c r="B696" t="n">
-        <v>2.11834062e-13</v>
+        <v>2.640320280000001e-13</v>
       </c>
       <c r="C696" t="n">
-        <v>3.17445912e-15</v>
+        <v>7.56549306e-15</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08506</v>
       </c>
       <c r="B697" t="n">
-        <v>1.81400868e-13</v>
+        <v>2.70339102e-13</v>
       </c>
       <c r="C697" t="n">
-        <v>4.118085180000001e-15</v>
+        <v>7.847204760000001e-15</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08579</v>
       </c>
       <c r="B698" t="n">
-        <v>1.406248416e-13</v>
+        <v>2.71792116e-13</v>
       </c>
       <c r="C698" t="n">
-        <v>7.218644039999999e-15</v>
+        <v>6.60669606e-15</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>3.19493</v>
+        <v>3.08604</v>
       </c>
       <c r="B699" t="n">
-        <v>1.416179214e-13</v>
+        <v>2.56598748e-13</v>
       </c>
       <c r="C699" t="n">
-        <v>8.514293580000001e-15</v>
+        <v>8.254849679999999e-15</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>3.1959</v>
+        <v>3.08798</v>
       </c>
       <c r="B700" t="n">
-        <v>1.391804784e-13</v>
+        <v>2.67423462e-13</v>
       </c>
       <c r="C700" t="n">
-        <v>7.22332188e-15</v>
+        <v>7.189647839999999e-15</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>3.19699</v>
+        <v>3.08898</v>
       </c>
       <c r="B701" t="n">
-        <v>1.31542623e-13</v>
+        <v>2.90905578e-13</v>
       </c>
       <c r="C701" t="n">
-        <v>7.479401580000001e-15</v>
+        <v>6.68969568e-15</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>3.1976</v>
+        <v>3.08959</v>
       </c>
       <c r="B702" t="n">
-        <v>1.405750194e-13</v>
+        <v>2.7016128e-13</v>
       </c>
       <c r="C702" t="n">
-        <v>5.418236339999999e-15</v>
+        <v>6.60551058e-15</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
+        <v>3.08998</v>
+      </c>
+      <c r="B703" t="n">
+        <v>2.83485114e-13</v>
+      </c>
+      <c r="C703" t="n">
+        <v>6.989974559999999e-15</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B704" t="n">
+        <v>2.91078594e-13</v>
+      </c>
+      <c r="C704" t="n">
+        <v>6.88589262e-15</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B705" t="n">
+        <v>2.860002540000001e-13</v>
+      </c>
+      <c r="C705" t="n">
+        <v>8.03532762e-15</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B706" t="n">
+        <v>2.9708289e-13</v>
+      </c>
+      <c r="C706" t="n">
+        <v>7.362167219999999e-15</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B707" t="n">
+        <v>2.98314828e-13</v>
+      </c>
+      <c r="C707" t="n">
+        <v>6.90554916e-15</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B708" t="n">
+        <v>3.00666564e-13</v>
+      </c>
+      <c r="C708" t="n">
+        <v>7.589667240000001e-15</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B709" t="n">
+        <v>3.06907956e-13</v>
+      </c>
+      <c r="C709" t="n">
+        <v>7.664224320000001e-15</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B710" t="n">
+        <v>3.0271392e-13</v>
+      </c>
+      <c r="C710" t="n">
+        <v>9.18936036e-15</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B711" t="n">
+        <v>3.338792280000001e-13</v>
+      </c>
+      <c r="C711" t="n">
+        <v>7.85897946e-15</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B712" t="n">
+        <v>3.08899242e-13</v>
+      </c>
+      <c r="C712" t="n">
+        <v>7.609147559999999e-15</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B713" t="n">
+        <v>3.70552212e-13</v>
+      </c>
+      <c r="C713" t="n">
+        <v>6.7846302e-15</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B714" t="n">
+        <v>4.229840700000001e-13</v>
+      </c>
+      <c r="C714" t="n">
+        <v>7.21737846e-15</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B715" t="n">
+        <v>3.40764624e-13</v>
+      </c>
+      <c r="C715" t="n">
+        <v>9.963943379999999e-15</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B716" t="n">
+        <v>3.7417914e-13</v>
+      </c>
+      <c r="C716" t="n">
+        <v>7.679138939999999e-15</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B717" t="n">
+        <v>4.87786572e-13</v>
+      </c>
+      <c r="C717" t="n">
+        <v>9.61986582e-15</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B718" t="n">
+        <v>6.7819068e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>1.8410184e-14</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B719" t="n">
+        <v>4.65762276e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>9.6828084e-15</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B720" t="n">
+        <v>8.59586742e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>1.156189032e-14</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B721" t="n">
+        <v>6.362871660000001e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>1.061025426e-14</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B722" t="n">
+        <v>7.11795834e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>1.251685854e-14</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B723" t="n">
+        <v>8.842206960000001e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>1.167902856e-14</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B724" t="n">
+        <v>1.300112712e-12</v>
+      </c>
+      <c r="C724" t="n">
+        <v>1.5347961e-14</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B725" t="n">
+        <v>1.564356204e-12</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1.69815204e-14</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B726" t="n">
+        <v>1.69693452e-12</v>
+      </c>
+      <c r="C726" t="n">
+        <v>1.79746002e-14</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B727" t="n">
+        <v>1.591543746e-12</v>
+      </c>
+      <c r="C727" t="n">
+        <v>1.80934686e-14</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B728" t="n">
+        <v>1.363811436e-12</v>
+      </c>
+      <c r="C728" t="n">
+        <v>1.74611592e-14</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B729" t="n">
+        <v>8.781987779999999e-13</v>
+      </c>
+      <c r="C729" t="n">
+        <v>1.19847222e-14</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B730" t="n">
+        <v>6.12266778e-13</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1.075372938e-14</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B731" t="n">
+        <v>5.2206777e-13</v>
+      </c>
+      <c r="C731" t="n">
+        <v>9.951527880000001e-15</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B732" t="n">
+        <v>3.73104198e-13</v>
+      </c>
+      <c r="C732" t="n">
+        <v>7.87902048e-15</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B733" t="n">
+        <v>4.451076900000001e-13</v>
+      </c>
+      <c r="C733" t="n">
+        <v>8.04183174e-15</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B734" t="n">
+        <v>3.92581314e-13</v>
+      </c>
+      <c r="C734" t="n">
+        <v>8.24626296e-15</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B735" t="n">
+        <v>3.84226884e-13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>8.43994476e-15</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B736" t="n">
+        <v>3.73932432e-13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>9.075650400000001e-15</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B737" t="n">
+        <v>3.51371466e-13</v>
+      </c>
+      <c r="C737" t="n">
+        <v>9.24517404e-15</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B738" t="n">
+        <v>3.47119758e-13</v>
+      </c>
+      <c r="C738" t="n">
+        <v>9.312057539999999e-15</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B739" t="n">
+        <v>3.47323212e-13</v>
+      </c>
+      <c r="C739" t="n">
+        <v>9.38845692e-15</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B740" t="n">
+        <v>3.49192746e-13</v>
+      </c>
+      <c r="C740" t="n">
+        <v>8.152081379999999e-15</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B741" t="n">
+        <v>3.71593512e-13</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1.017016884e-14</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B742" t="n">
+        <v>3.72415338e-13</v>
+      </c>
+      <c r="C742" t="n">
+        <v>7.783909740000001e-15</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B743" t="n">
+        <v>3.99032568e-13</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1.0429821e-14</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B744" t="n">
+        <v>4.14414972e-13</v>
+      </c>
+      <c r="C744" t="n">
+        <v>8.634075119999999e-15</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B745" t="n">
+        <v>4.51398744e-13</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1.044121122e-14</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B746" t="n">
+        <v>4.26205692e-13</v>
+      </c>
+      <c r="C746" t="n">
+        <v>7.67332368e-15</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B747" t="n">
+        <v>4.43645064e-13</v>
+      </c>
+      <c r="C747" t="n">
+        <v>1.044854838e-14</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B748" t="n">
+        <v>4.37352408e-13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>9.0812574e-15</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B749" t="n">
+        <v>4.56499512e-13</v>
+      </c>
+      <c r="C749" t="n">
+        <v>8.645449319999999e-15</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B750" t="n">
+        <v>4.04460144e-13</v>
+      </c>
+      <c r="C750" t="n">
+        <v>8.702240219999999e-15</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B751" t="n">
+        <v>3.7566099e-13</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1.112752404e-14</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B752" t="n">
+        <v>3.63815802e-13</v>
+      </c>
+      <c r="C752" t="n">
+        <v>7.5108969e-15</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B753" t="n">
+        <v>3.32229168e-13</v>
+      </c>
+      <c r="C753" t="n">
+        <v>8.36585226e-15</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B754" t="n">
+        <v>3.4575165e-13</v>
+      </c>
+      <c r="C754" t="n">
+        <v>7.657912439999999e-15</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B755" t="n">
+        <v>2.8049418e-13</v>
+      </c>
+      <c r="C755" t="n">
+        <v>7.9850889e-15</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B756" t="n">
+        <v>3.02158026e-13</v>
+      </c>
+      <c r="C756" t="n">
+        <v>7.01981982e-15</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B757" t="n">
+        <v>2.69555724e-13</v>
+      </c>
+      <c r="C757" t="n">
+        <v>6.593928120000001e-15</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B758" t="n">
+        <v>2.42805528e-13</v>
+      </c>
+      <c r="C758" t="n">
+        <v>7.559245260000002e-15</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B759" t="n">
+        <v>2.49376932e-13</v>
+      </c>
+      <c r="C759" t="n">
+        <v>8.284502699999999e-15</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B760" t="n">
+        <v>2.2482468e-13</v>
+      </c>
+      <c r="C760" t="n">
+        <v>7.89020244e-15</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B761" t="n">
+        <v>2.33710974e-13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>7.899862499999999e-15</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B762" t="n">
+        <v>2.05775298e-13</v>
+      </c>
+      <c r="C762" t="n">
+        <v>7.14802788e-15</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B763" t="n">
+        <v>1.83550752e-13</v>
+      </c>
+      <c r="C763" t="n">
+        <v>7.32128418e-15</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B764" t="n">
+        <v>1.98180216e-13</v>
+      </c>
+      <c r="C764" t="n">
+        <v>9.454170960000002e-15</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B765" t="n">
+        <v>2.0104299e-13</v>
+      </c>
+      <c r="C765" t="n">
+        <v>4.65448284e-15</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B766" t="n">
+        <v>2.11749156e-13</v>
+      </c>
+      <c r="C766" t="n">
+        <v>6.35079258e-15</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B767" t="n">
+        <v>2.1341844e-13</v>
+      </c>
+      <c r="C767" t="n">
+        <v>7.00352748e-15</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B768" t="n">
+        <v>2.18253276e-13</v>
+      </c>
+      <c r="C768" t="n">
+        <v>9.807155639999999e-15</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B769" t="n">
+        <v>2.28161646e-13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>5.4959814e-15</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B770" t="n">
+        <v>2.20992696e-13</v>
+      </c>
+      <c r="C770" t="n">
+        <v>6.71848362e-15</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B771" t="n">
+        <v>2.719346940000001e-13</v>
+      </c>
+      <c r="C771" t="n">
+        <v>1.077915312e-14</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B772" t="n">
+        <v>2.8304937e-13</v>
+      </c>
+      <c r="C772" t="n">
+        <v>1.043730234e-14</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B773" t="n">
+        <v>4.8108861e-13</v>
+      </c>
+      <c r="C773" t="n">
+        <v>1.341815976e-14</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B774" t="n">
+        <v>1.00636038e-12</v>
+      </c>
+      <c r="C774" t="n">
+        <v>1.70210898e-14</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2.80832202e-13</v>
+      </c>
+      <c r="C775" t="n">
+        <v>9.118359719999999e-15</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B776" t="n">
+        <v>7.78046544e-13</v>
+      </c>
+      <c r="C776" t="n">
+        <v>1.553220702e-14</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B777" t="n">
+        <v>7.45904016e-13</v>
+      </c>
+      <c r="C777" t="n">
+        <v>1.079586198e-14</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B778" t="n">
+        <v>3.09126726e-13</v>
+      </c>
+      <c r="C778" t="n">
+        <v>5.16592134e-15</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2.71095246e-13</v>
+      </c>
+      <c r="C779" t="n">
+        <v>1.051158708e-14</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.7840357e-13</v>
+      </c>
+      <c r="C780" t="n">
+        <v>7.20629262e-15</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2.38830966e-13</v>
+      </c>
+      <c r="C781" t="n">
+        <v>8.310150719999999e-15</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B782" t="n">
+        <v>2.55724056e-13</v>
+      </c>
+      <c r="C782" t="n">
+        <v>6.02145342e-15</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B783" t="n">
+        <v>2.19707892e-13</v>
+      </c>
+      <c r="C783" t="n">
+        <v>1.048842216e-14</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.53697526e-13</v>
+      </c>
+      <c r="C784" t="n">
+        <v>5.11057224e-15</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2.25547182e-13</v>
+      </c>
+      <c r="C785" t="n">
+        <v>1.034384166e-14</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2.45868552e-13</v>
+      </c>
+      <c r="C786" t="n">
+        <v>4.8728034e-15</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B787" t="n">
+        <v>2.6155854e-13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>1.05325092e-14</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B788" t="n">
+        <v>2.5986843e-13</v>
+      </c>
+      <c r="C788" t="n">
+        <v>7.0424721e-15</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B789" t="n">
+        <v>2.69775198e-13</v>
+      </c>
+      <c r="C789" t="n">
+        <v>1.149255576e-14</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B790" t="n">
+        <v>2.77806024e-13</v>
+      </c>
+      <c r="C790" t="n">
+        <v>7.040165219999999e-15</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B791" t="n">
+        <v>2.85425136e-13</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1.148488218e-14</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B792" t="n">
+        <v>2.93592132e-13</v>
+      </c>
+      <c r="C792" t="n">
+        <v>6.80141916e-15</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B793" t="n">
+        <v>2.97561888e-13</v>
+      </c>
+      <c r="C793" t="n">
+        <v>1.062965448e-14</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B794" t="n">
+        <v>3.68033868e-13</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1.191045348e-14</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B795" t="n">
+        <v>3.87901872e-13</v>
+      </c>
+      <c r="C795" t="n">
+        <v>8.085326040000001e-15</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B796" t="n">
+        <v>4.0885443e-13</v>
+      </c>
+      <c r="C796" t="n">
+        <v>1.225238436e-14</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B797" t="n">
+        <v>4.60970694e-13</v>
+      </c>
+      <c r="C797" t="n">
+        <v>1.288150578e-14</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B798" t="n">
+        <v>5.259494160000003e-13</v>
+      </c>
+      <c r="C798" t="n">
+        <v>1.050493878e-14</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B799" t="n">
+        <v>5.44261878e-13</v>
+      </c>
+      <c r="C799" t="n">
+        <v>1.389356928e-14</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B800" t="n">
+        <v>6.398660339999999e-13</v>
+      </c>
+      <c r="C800" t="n">
+        <v>8.938695419999999e-15</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B801" t="n">
+        <v>6.7885551e-13</v>
+      </c>
+      <c r="C801" t="n">
+        <v>1.504088964e-14</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B802" t="n">
+        <v>7.29725418e-13</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1.539539622e-14</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B803" t="n">
+        <v>7.74972306e-13</v>
+      </c>
+      <c r="C803" t="n">
+        <v>1.208103444e-14</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B804" t="n">
+        <v>8.32077198e-13</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1.61012214e-14</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B805" t="n">
+        <v>9.399318480000001e-13</v>
+      </c>
+      <c r="C805" t="n">
+        <v>1.74683682e-14</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B806" t="n">
+        <v>1.042105806e-12</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1.75548762e-14</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B807" t="n">
+        <v>8.891772839999998e-13</v>
+      </c>
+      <c r="C807" t="n">
+        <v>1.170264204e-14</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B808" t="n">
+        <v>9.55269396e-13</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1.81705248e-14</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B809" t="n">
+        <v>9.728305200000001e-13</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1.80367578e-14</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B810" t="n">
+        <v>8.876393639999999e-13</v>
+      </c>
+      <c r="C810" t="n">
+        <v>1.559196162e-14</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B811" t="n">
+        <v>9.42539904e-13</v>
+      </c>
+      <c r="C811" t="n">
+        <v>1.7435367e-14</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B812" t="n">
+        <v>9.04067874e-13</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1.70177256e-14</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B813" t="n">
+        <v>8.14347864e-13</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1.427200974e-14</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B814" t="n">
+        <v>6.42981924e-13</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1.498472352e-14</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B815" t="n">
+        <v>5.97635712e-13</v>
+      </c>
+      <c r="C815" t="n">
+        <v>1.411509384e-14</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B816" t="n">
+        <v>5.01360318e-13</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1.358092296e-14</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B817" t="n">
+        <v>3.271956840000001e-13</v>
+      </c>
+      <c r="C817" t="n">
+        <v>5.97371382e-15</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B818" t="n">
+        <v>4.593110220000001e-13</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1.027032588e-14</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B819" t="n">
+        <v>3.91235634e-13</v>
+      </c>
+      <c r="C819" t="n">
+        <v>1.176430302e-14</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B820" t="n">
+        <v>3.63466566e-13</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1.17116613e-14</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B821" t="n">
+        <v>3.0440403e-13</v>
+      </c>
+      <c r="C821" t="n">
+        <v>1.066145418e-14</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B822" t="n">
+        <v>2.64445344e-13</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1.006970742e-14</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B823" t="n">
+        <v>2.31782166e-13</v>
+      </c>
+      <c r="C823" t="n">
+        <v>9.6035895e-15</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B824" t="n">
+        <v>2.19392298e-13</v>
+      </c>
+      <c r="C824" t="n">
+        <v>9.439752960000001e-15</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B825" t="n">
+        <v>2.11834062e-13</v>
+      </c>
+      <c r="C825" t="n">
+        <v>3.17445912e-15</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B826" t="n">
+        <v>1.95327054e-13</v>
+      </c>
+      <c r="C826" t="n">
+        <v>9.138609000000001e-15</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B827" t="n">
+        <v>1.83824694e-13</v>
+      </c>
+      <c r="C827" t="n">
+        <v>8.591926500000001e-15</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B828" t="n">
+        <v>1.81400868e-13</v>
+      </c>
+      <c r="C828" t="n">
+        <v>4.118085180000001e-15</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B829" t="n">
+        <v>1.69310574e-13</v>
+      </c>
+      <c r="C829" t="n">
+        <v>8.058893039999998e-15</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>3.19298</v>
+      </c>
+      <c r="B830" t="n">
+        <v>1.65018816e-13</v>
+      </c>
+      <c r="C830" t="n">
+        <v>8.91022788e-15</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B831" t="n">
+        <v>1.599584184e-13</v>
+      </c>
+      <c r="C831" t="n">
+        <v>7.807298940000001e-15</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B832" t="n">
+        <v>1.406248416e-13</v>
+      </c>
+      <c r="C832" t="n">
+        <v>7.218644039999999e-15</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>3.19493</v>
+      </c>
+      <c r="B833" t="n">
+        <v>1.416179214e-13</v>
+      </c>
+      <c r="C833" t="n">
+        <v>8.514293580000001e-15</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>3.19501</v>
+      </c>
+      <c r="B834" t="n">
+        <v>1.453148568e-13</v>
+      </c>
+      <c r="C834" t="n">
+        <v>8.411589360000002e-15</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>3.1959</v>
+      </c>
+      <c r="B835" t="n">
+        <v>1.391804784e-13</v>
+      </c>
+      <c r="C835" t="n">
+        <v>7.22332188e-15</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="B836" t="n">
+        <v>1.355186268e-13</v>
+      </c>
+      <c r="C836" t="n">
+        <v>9.533774339999999e-15</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B837" t="n">
+        <v>1.26688563e-13</v>
+      </c>
+      <c r="C837" t="n">
+        <v>8.298055619999998e-15</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B838" t="n">
+        <v>1.31542623e-13</v>
+      </c>
+      <c r="C838" t="n">
+        <v>7.479401580000001e-15</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>3.1976</v>
+      </c>
+      <c r="B839" t="n">
+        <v>1.405750194e-13</v>
+      </c>
+      <c r="C839" t="n">
+        <v>5.418236339999999e-15</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>3.19795</v>
+      </c>
+      <c r="B840" t="n">
+        <v>1.075204728e-13</v>
+      </c>
+      <c r="C840" t="n">
+        <v>8.003031299999999e-15</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
         <v>3.19867</v>
       </c>
-      <c r="B703" t="n">
+      <c r="B841" t="n">
         <v>1.07452548e-13</v>
       </c>
-      <c r="C703" t="n">
+      <c r="C841" t="n">
         <v>7.35466986e-15</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>3.19892</v>
+      </c>
+      <c r="B842" t="n">
+        <v>1.131287544e-13</v>
+      </c>
+      <c r="C842" t="n">
+        <v>8.070042960000001e-15</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1.245149694e-13</v>
+      </c>
+      <c r="C843" t="n">
+        <v>6.628162860000002e-15</v>
       </c>
     </row>
   </sheetData>
